--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value735.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.143214399627286</v>
+        <v>0.9095641374588013</v>
       </c>
       <c r="B1">
-        <v>1.668670123607815</v>
+        <v>1.444684147834778</v>
       </c>
       <c r="C1">
         <v>-1</v>
@@ -360,7 +360,7 @@
         <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.087339219402128</v>
+        <v>1.492230176925659</v>
       </c>
     </row>
   </sheetData>
